--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -1816,55 +1816,55 @@
         <v>0</v>
       </c>
       <c r="Q3" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="73" t="n">
         <v>1e-05</v>
       </c>
-      <c r="R3" s="73" t="n">
-        <v>3e-05</v>
-      </c>
-      <c r="S3" s="73" t="n">
+      <c r="U3" s="73" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="V3" s="73" t="n">
+        <v>4e-05</v>
+      </c>
+      <c r="W3" s="73" t="n">
         <v>6.999999999999999e-05</v>
       </c>
-      <c r="T3" s="73" t="n">
+      <c r="X3" s="73" t="n">
         <v>0.00013</v>
       </c>
-      <c r="U3" s="73" t="n">
-        <v>0.00026</v>
-      </c>
-      <c r="V3" s="73" t="n">
-        <v>0.00049</v>
-      </c>
-      <c r="W3" s="73" t="n">
-        <v>0.00092</v>
-      </c>
-      <c r="X3" s="73" t="n">
-        <v>0.0017</v>
-      </c>
       <c r="Y3" s="73" t="n">
-        <v>0.00247</v>
+        <v>0.00018</v>
       </c>
       <c r="Z3" s="73" t="n">
-        <v>0.00326</v>
+        <v>0.00024</v>
       </c>
       <c r="AA3" s="73" t="n">
-        <v>0.00405</v>
+        <v>0.0003</v>
       </c>
       <c r="AB3" s="73" t="n">
-        <v>0.00484</v>
+        <v>0.00036</v>
       </c>
       <c r="AC3" s="73" t="n">
-        <v>0.00565</v>
+        <v>0.00042</v>
       </c>
       <c r="AD3" s="73" t="n">
-        <v>0.00647</v>
+        <v>0.00048</v>
       </c>
       <c r="AE3" s="73" t="n">
-        <v>0.00728</v>
+        <v>0.00054</v>
       </c>
       <c r="AF3" s="73" t="n">
-        <v>0.00809</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="AG3" s="73" t="n">
-        <v>0.00891</v>
+        <v>0.00066</v>
       </c>
     </row>
     <row r="4">
@@ -2080,100 +2080,100 @@
         </is>
       </c>
       <c r="B6" s="73" t="n">
-        <v>0</v>
+        <v>5.00017</v>
       </c>
       <c r="C6" s="73" t="n">
-        <v>0</v>
+        <v>5.00087</v>
       </c>
       <c r="D6" s="73" t="n">
-        <v>0</v>
+        <v>5.00716</v>
       </c>
       <c r="E6" s="73" t="n">
-        <v>0</v>
+        <v>5.00863</v>
       </c>
       <c r="F6" s="73" t="n">
-        <v>0</v>
+        <v>5.00962</v>
       </c>
       <c r="G6" s="73" t="n">
-        <v>0</v>
+        <v>5.01526</v>
       </c>
       <c r="H6" s="73" t="n">
-        <v>0</v>
+        <v>5.02606</v>
       </c>
       <c r="I6" s="73" t="n">
-        <v>0</v>
+        <v>5.04913</v>
       </c>
       <c r="J6" s="73" t="n">
-        <v>0</v>
+        <v>5.07045</v>
       </c>
       <c r="K6" s="73" t="n">
-        <v>0</v>
+        <v>5.07078</v>
       </c>
       <c r="L6" s="73" t="n">
-        <v>0</v>
+        <v>5.07112</v>
       </c>
       <c r="M6" s="73" t="n">
-        <v>0</v>
+        <v>5.08065</v>
       </c>
       <c r="N6" s="73" t="n">
-        <v>0</v>
+        <v>5.08129</v>
       </c>
       <c r="O6" s="73" t="n">
-        <v>0</v>
+        <v>5.08293</v>
       </c>
       <c r="P6" s="73" t="n">
-        <v>0</v>
+        <v>5.0911</v>
       </c>
       <c r="Q6" s="73" t="n">
-        <v>0</v>
+        <v>5.0954</v>
       </c>
       <c r="R6" s="73" t="n">
-        <v>0</v>
+        <v>5.0954</v>
       </c>
       <c r="S6" s="73" t="n">
-        <v>0</v>
+        <v>5.09621</v>
       </c>
       <c r="T6" s="73" t="n">
-        <v>0</v>
+        <v>5.09621</v>
       </c>
       <c r="U6" s="73" t="n">
-        <v>0</v>
+        <v>5.10898</v>
       </c>
       <c r="V6" s="73" t="n">
-        <v>0</v>
+        <v>5.12033</v>
       </c>
       <c r="W6" s="73" t="n">
-        <v>0</v>
+        <v>5.12033</v>
       </c>
       <c r="X6" s="73" t="n">
-        <v>0</v>
+        <v>5.13631</v>
       </c>
       <c r="Y6" s="73" t="n">
-        <v>0</v>
+        <v>5.13919</v>
       </c>
       <c r="Z6" s="73" t="n">
-        <v>0</v>
+        <v>5.13919</v>
       </c>
       <c r="AA6" s="73" t="n">
-        <v>0</v>
+        <v>5.14039</v>
       </c>
       <c r="AB6" s="73" t="n">
-        <v>0</v>
+        <v>5.1407</v>
       </c>
       <c r="AC6" s="73" t="n">
-        <v>0</v>
+        <v>5.14153</v>
       </c>
       <c r="AD6" s="73" t="n">
-        <v>0</v>
+        <v>5.14268</v>
       </c>
       <c r="AE6" s="73" t="n">
-        <v>0</v>
+        <v>5.14268</v>
       </c>
       <c r="AF6" s="73" t="n">
-        <v>0</v>
+        <v>5.14268</v>
       </c>
       <c r="AG6" s="73" t="n">
-        <v>0</v>
+        <v>5.14268</v>
       </c>
     </row>
     <row r="7">
@@ -2183,100 +2183,100 @@
         </is>
       </c>
       <c r="B7" s="73" t="n">
-        <v>16.25444</v>
+        <v>11.02648</v>
       </c>
       <c r="C7" s="73" t="n">
-        <v>19.34295</v>
+        <v>13.12163</v>
       </c>
       <c r="D7" s="73" t="n">
-        <v>22.43812</v>
+        <v>15.22129</v>
       </c>
       <c r="E7" s="73" t="n">
-        <v>24.6817</v>
+        <v>16.74326</v>
       </c>
       <c r="F7" s="73" t="n">
-        <v>25.91519</v>
+        <v>17.58002</v>
       </c>
       <c r="G7" s="73" t="n">
-        <v>26.62681</v>
+        <v>18.06276</v>
       </c>
       <c r="H7" s="73" t="n">
-        <v>28.04759</v>
+        <v>19.02657</v>
       </c>
       <c r="I7" s="73" t="n">
-        <v>29.47303</v>
+        <v>19.99354</v>
       </c>
       <c r="J7" s="73" t="n">
-        <v>30.83444</v>
+        <v>20.91708</v>
       </c>
       <c r="K7" s="73" t="n">
-        <v>31.84159</v>
+        <v>21.60029</v>
       </c>
       <c r="L7" s="73" t="n">
-        <v>32.89079</v>
+        <v>22.31204</v>
       </c>
       <c r="M7" s="73" t="n">
-        <v>34.22212</v>
+        <v>23.21517</v>
       </c>
       <c r="N7" s="73" t="n">
-        <v>34.76054</v>
+        <v>23.58042</v>
       </c>
       <c r="O7" s="73" t="n">
-        <v>35.19305</v>
+        <v>23.87382</v>
       </c>
       <c r="P7" s="73" t="n">
-        <v>35.94433</v>
+        <v>24.38346</v>
       </c>
       <c r="Q7" s="73" t="n">
-        <v>36.71845</v>
+        <v>24.9086</v>
       </c>
       <c r="R7" s="73" t="n">
-        <v>37.07568</v>
+        <v>25.15093</v>
       </c>
       <c r="S7" s="73" t="n">
-        <v>37.9681</v>
+        <v>25.75632</v>
       </c>
       <c r="T7" s="73" t="n">
-        <v>38.39987</v>
+        <v>26.04922</v>
       </c>
       <c r="U7" s="73" t="n">
-        <v>39.25712</v>
+        <v>26.63075</v>
       </c>
       <c r="V7" s="73" t="n">
-        <v>39.76978</v>
+        <v>26.97852</v>
       </c>
       <c r="W7" s="73" t="n">
-        <v>40.16891</v>
+        <v>27.24928</v>
       </c>
       <c r="X7" s="73" t="n">
-        <v>40.71715</v>
+        <v>27.62119</v>
       </c>
       <c r="Y7" s="73" t="n">
-        <v>41.26943</v>
+        <v>27.99583</v>
       </c>
       <c r="Z7" s="73" t="n">
-        <v>41.76879</v>
+        <v>28.33458</v>
       </c>
       <c r="AA7" s="73" t="n">
-        <v>42.48842</v>
+        <v>28.82276</v>
       </c>
       <c r="AB7" s="73" t="n">
-        <v>43.01745</v>
+        <v>29.18164</v>
       </c>
       <c r="AC7" s="73" t="n">
-        <v>43.84296</v>
+        <v>29.74163</v>
       </c>
       <c r="AD7" s="73" t="n">
-        <v>44.5495</v>
+        <v>30.22092</v>
       </c>
       <c r="AE7" s="73" t="n">
-        <v>45.15087</v>
+        <v>30.62887</v>
       </c>
       <c r="AF7" s="73" t="n">
-        <v>45.55925</v>
+        <v>30.90591</v>
       </c>
       <c r="AG7" s="73" t="n">
-        <v>46.19533</v>
+        <v>31.3374</v>
       </c>
     </row>
     <row r="8">
@@ -3546,100 +3546,100 @@
         </is>
       </c>
       <c r="B3" s="73" t="n">
-        <v>2.7922</v>
+        <v>15.94301</v>
       </c>
       <c r="C3" s="73" t="n">
-        <v>2.8651</v>
+        <v>16.35927</v>
       </c>
       <c r="D3" s="73" t="n">
-        <v>2.9261</v>
+        <v>16.70755</v>
       </c>
       <c r="E3" s="73" t="n">
-        <v>2.97871</v>
+        <v>17.00798</v>
       </c>
       <c r="F3" s="73" t="n">
-        <v>3.02241</v>
+        <v>17.25746</v>
       </c>
       <c r="G3" s="73" t="n">
-        <v>3.06399</v>
+        <v>17.49492</v>
       </c>
       <c r="H3" s="73" t="n">
-        <v>3.10577</v>
+        <v>17.73346</v>
       </c>
       <c r="I3" s="73" t="n">
-        <v>3.14827</v>
+        <v>17.97612</v>
       </c>
       <c r="J3" s="73" t="n">
-        <v>3.1831</v>
+        <v>18.17501</v>
       </c>
       <c r="K3" s="73" t="n">
-        <v>3.21263</v>
+        <v>18.34363</v>
       </c>
       <c r="L3" s="73" t="n">
-        <v>3.24234</v>
+        <v>18.51327</v>
       </c>
       <c r="M3" s="73" t="n">
-        <v>3.27459</v>
+        <v>18.69738</v>
       </c>
       <c r="N3" s="73" t="n">
-        <v>3.30612</v>
+        <v>18.87746</v>
       </c>
       <c r="O3" s="73" t="n">
-        <v>3.33587</v>
+        <v>19.04732</v>
       </c>
       <c r="P3" s="73" t="n">
-        <v>3.37169</v>
+        <v>19.25182</v>
       </c>
       <c r="Q3" s="73" t="n">
-        <v>3.40202</v>
+        <v>19.42501</v>
       </c>
       <c r="R3" s="73" t="n">
-        <v>3.43005</v>
+        <v>19.58505</v>
       </c>
       <c r="S3" s="73" t="n">
-        <v>3.45897</v>
+        <v>19.75021</v>
       </c>
       <c r="T3" s="73" t="n">
-        <v>3.48589</v>
+        <v>19.90392</v>
       </c>
       <c r="U3" s="73" t="n">
-        <v>3.52026</v>
+        <v>20.10015</v>
       </c>
       <c r="V3" s="73" t="n">
-        <v>3.54859</v>
+        <v>20.26191</v>
       </c>
       <c r="W3" s="73" t="n">
-        <v>3.57545</v>
+        <v>20.41527</v>
       </c>
       <c r="X3" s="73" t="n">
-        <v>3.60721</v>
+        <v>20.59662</v>
       </c>
       <c r="Y3" s="73" t="n">
-        <v>3.64372</v>
+        <v>20.8051</v>
       </c>
       <c r="Z3" s="73" t="n">
-        <v>3.67149</v>
+        <v>20.96367</v>
       </c>
       <c r="AA3" s="73" t="n">
-        <v>3.70566</v>
+        <v>21.15876</v>
       </c>
       <c r="AB3" s="73" t="n">
-        <v>3.73393</v>
+        <v>21.32017</v>
       </c>
       <c r="AC3" s="73" t="n">
-        <v>3.7622</v>
+        <v>21.48158</v>
       </c>
       <c r="AD3" s="73" t="n">
-        <v>3.79308</v>
+        <v>21.65791</v>
       </c>
       <c r="AE3" s="73" t="n">
-        <v>3.8218</v>
+        <v>21.8219</v>
       </c>
       <c r="AF3" s="73" t="n">
-        <v>3.85044</v>
+        <v>21.98544</v>
       </c>
       <c r="AG3" s="73" t="n">
-        <v>3.87916</v>
+        <v>22.14942</v>
       </c>
     </row>
     <row r="4">
@@ -3855,100 +3855,100 @@
         </is>
       </c>
       <c r="B6" s="73" t="n">
-        <v>0</v>
+        <v>76.87321</v>
       </c>
       <c r="C6" s="73" t="n">
-        <v>0</v>
+        <v>76.88388</v>
       </c>
       <c r="D6" s="73" t="n">
-        <v>0</v>
+        <v>76.98058</v>
       </c>
       <c r="E6" s="73" t="n">
-        <v>0</v>
+        <v>77.0033</v>
       </c>
       <c r="F6" s="73" t="n">
-        <v>0</v>
+        <v>77.0184</v>
       </c>
       <c r="G6" s="73" t="n">
-        <v>0</v>
+        <v>77.10513</v>
       </c>
       <c r="H6" s="73" t="n">
-        <v>0</v>
+        <v>77.27124000000001</v>
       </c>
       <c r="I6" s="73" t="n">
-        <v>0</v>
+        <v>77.6259</v>
       </c>
       <c r="J6" s="73" t="n">
-        <v>0</v>
+        <v>77.95368999999999</v>
       </c>
       <c r="K6" s="73" t="n">
-        <v>0</v>
+        <v>77.95881</v>
       </c>
       <c r="L6" s="73" t="n">
-        <v>0</v>
+        <v>77.96393999999999</v>
       </c>
       <c r="M6" s="73" t="n">
-        <v>0</v>
+        <v>78.11051</v>
       </c>
       <c r="N6" s="73" t="n">
-        <v>0</v>
+        <v>78.12035</v>
       </c>
       <c r="O6" s="73" t="n">
-        <v>0</v>
+        <v>78.14557000000001</v>
       </c>
       <c r="P6" s="73" t="n">
-        <v>0</v>
+        <v>78.27122</v>
       </c>
       <c r="Q6" s="73" t="n">
-        <v>0</v>
+        <v>78.3373</v>
       </c>
       <c r="R6" s="73" t="n">
-        <v>0</v>
+        <v>78.3373</v>
       </c>
       <c r="S6" s="73" t="n">
-        <v>0</v>
+        <v>78.34977000000001</v>
       </c>
       <c r="T6" s="73" t="n">
-        <v>0</v>
+        <v>78.34977000000001</v>
       </c>
       <c r="U6" s="73" t="n">
-        <v>0</v>
+        <v>78.54608</v>
       </c>
       <c r="V6" s="73" t="n">
-        <v>0</v>
+        <v>78.72051</v>
       </c>
       <c r="W6" s="73" t="n">
-        <v>0</v>
+        <v>78.72051</v>
       </c>
       <c r="X6" s="73" t="n">
-        <v>0</v>
+        <v>78.96628</v>
       </c>
       <c r="Y6" s="73" t="n">
-        <v>0</v>
+        <v>79.01047</v>
       </c>
       <c r="Z6" s="73" t="n">
-        <v>0</v>
+        <v>79.01047</v>
       </c>
       <c r="AA6" s="73" t="n">
-        <v>0</v>
+        <v>79.02889999999999</v>
       </c>
       <c r="AB6" s="73" t="n">
-        <v>0</v>
+        <v>79.03375</v>
       </c>
       <c r="AC6" s="73" t="n">
-        <v>0</v>
+        <v>79.04649000000001</v>
       </c>
       <c r="AD6" s="73" t="n">
-        <v>0</v>
+        <v>79.06408999999999</v>
       </c>
       <c r="AE6" s="73" t="n">
-        <v>0</v>
+        <v>79.06408999999999</v>
       </c>
       <c r="AF6" s="73" t="n">
-        <v>0</v>
+        <v>79.06408999999999</v>
       </c>
       <c r="AG6" s="73" t="n">
-        <v>0</v>
+        <v>79.06408999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3958,100 +3958,100 @@
         </is>
       </c>
       <c r="B7" s="73" t="n">
-        <v>50.24302</v>
+        <v>39.35951</v>
       </c>
       <c r="C7" s="73" t="n">
-        <v>59.78972</v>
+        <v>46.83824</v>
       </c>
       <c r="D7" s="73" t="n">
-        <v>69.35701</v>
+        <v>54.33309</v>
       </c>
       <c r="E7" s="73" t="n">
-        <v>76.29197000000001</v>
+        <v>59.76582</v>
       </c>
       <c r="F7" s="73" t="n">
-        <v>80.10473</v>
+        <v>62.75267</v>
       </c>
       <c r="G7" s="73" t="n">
-        <v>82.30437000000001</v>
+        <v>64.47583</v>
       </c>
       <c r="H7" s="73" t="n">
-        <v>86.69605</v>
+        <v>67.9162</v>
       </c>
       <c r="I7" s="73" t="n">
-        <v>91.10214999999999</v>
+        <v>71.36785999999999</v>
       </c>
       <c r="J7" s="73" t="n">
-        <v>95.3103</v>
+        <v>74.66445</v>
       </c>
       <c r="K7" s="73" t="n">
-        <v>98.42344</v>
+        <v>77.10323</v>
       </c>
       <c r="L7" s="73" t="n">
-        <v>101.66656</v>
+        <v>79.64382999999999</v>
       </c>
       <c r="M7" s="73" t="n">
-        <v>105.78174</v>
+        <v>82.86759000000001</v>
       </c>
       <c r="N7" s="73" t="n">
-        <v>107.44603</v>
+        <v>84.17137</v>
       </c>
       <c r="O7" s="73" t="n">
-        <v>108.78292</v>
+        <v>85.21866</v>
       </c>
       <c r="P7" s="73" t="n">
-        <v>111.10516</v>
+        <v>87.03787</v>
       </c>
       <c r="Q7" s="73" t="n">
-        <v>113.49798</v>
+        <v>88.91236000000001</v>
       </c>
       <c r="R7" s="73" t="n">
-        <v>114.60219</v>
+        <v>89.77737999999999</v>
       </c>
       <c r="S7" s="73" t="n">
-        <v>117.3607</v>
+        <v>91.93835</v>
       </c>
       <c r="T7" s="73" t="n">
-        <v>118.6953</v>
+        <v>92.98385</v>
       </c>
       <c r="U7" s="73" t="n">
-        <v>121.34511</v>
+        <v>95.05967</v>
       </c>
       <c r="V7" s="73" t="n">
-        <v>122.92976</v>
+        <v>96.30106000000001</v>
       </c>
       <c r="W7" s="73" t="n">
-        <v>124.16349</v>
+        <v>97.26754</v>
       </c>
       <c r="X7" s="73" t="n">
-        <v>125.85811</v>
+        <v>98.59507000000001</v>
       </c>
       <c r="Y7" s="73" t="n">
-        <v>127.56522</v>
+        <v>99.9324</v>
       </c>
       <c r="Z7" s="73" t="n">
-        <v>129.10875</v>
+        <v>101.14158</v>
       </c>
       <c r="AA7" s="73" t="n">
-        <v>131.33316</v>
+        <v>102.88414</v>
       </c>
       <c r="AB7" s="73" t="n">
-        <v>132.96842</v>
+        <v>104.16517</v>
       </c>
       <c r="AC7" s="73" t="n">
-        <v>135.52008</v>
+        <v>106.1641</v>
       </c>
       <c r="AD7" s="73" t="n">
-        <v>137.70401</v>
+        <v>107.87495</v>
       </c>
       <c r="AE7" s="73" t="n">
-        <v>139.56287</v>
+        <v>109.33115</v>
       </c>
       <c r="AF7" s="73" t="n">
-        <v>140.82519</v>
+        <v>110.32003</v>
       </c>
       <c r="AG7" s="73" t="n">
-        <v>142.79135</v>
+        <v>111.86028</v>
       </c>
     </row>
     <row r="8">
@@ -4370,100 +4370,100 @@
         </is>
       </c>
       <c r="B11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="C11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="D11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="E11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="F11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="G11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="H11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="I11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="J11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="K11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="L11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="M11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="N11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="O11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="P11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="Q11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="R11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="S11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="T11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="U11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="V11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="W11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="X11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="Y11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="Z11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="AA11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="AB11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="AC11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="AD11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="AE11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="AF11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
       <c r="AG11" s="73" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
     </row>
     <row r="12">
@@ -36977,58 +36977,58 @@
         <v>0</v>
       </c>
       <c r="P3" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="73" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R3" s="73" t="n">
         <v>2e-05</v>
       </c>
-      <c r="Q3" s="73" t="n">
-        <v>9.000000000000001e-05</v>
-      </c>
-      <c r="R3" s="73" t="n">
-        <v>0.00026</v>
-      </c>
       <c r="S3" s="73" t="n">
-        <v>0.00056</v>
+        <v>4e-05</v>
       </c>
       <c r="T3" s="73" t="n">
-        <v>0.00114</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="U3" s="73" t="n">
-        <v>0.00223</v>
+        <v>0.00015</v>
       </c>
       <c r="V3" s="73" t="n">
-        <v>0.00421</v>
+        <v>0.00028</v>
       </c>
       <c r="W3" s="73" t="n">
-        <v>0.007889999999999999</v>
+        <v>0.00052</v>
       </c>
       <c r="X3" s="73" t="n">
-        <v>0.01455</v>
+        <v>0.00096</v>
       </c>
       <c r="Y3" s="73" t="n">
-        <v>0.02124</v>
+        <v>0.0014</v>
       </c>
       <c r="Z3" s="73" t="n">
-        <v>0.02798</v>
+        <v>0.00184</v>
       </c>
       <c r="AA3" s="73" t="n">
-        <v>0.0348</v>
+        <v>0.00229</v>
       </c>
       <c r="AB3" s="73" t="n">
-        <v>0.04168</v>
+        <v>0.00274</v>
       </c>
       <c r="AC3" s="73" t="n">
-        <v>0.04861</v>
+        <v>0.0032</v>
       </c>
       <c r="AD3" s="73" t="n">
-        <v>0.05558</v>
+        <v>0.00365</v>
       </c>
       <c r="AE3" s="73" t="n">
-        <v>0.06258</v>
+        <v>0.00411</v>
       </c>
       <c r="AF3" s="73" t="n">
-        <v>0.06959</v>
+        <v>0.00457</v>
       </c>
       <c r="AG3" s="73" t="n">
-        <v>0.07661</v>
+        <v>0.00504</v>
       </c>
     </row>
     <row r="4">
@@ -37244,100 +37244,100 @@
         </is>
       </c>
       <c r="B6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="C6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="D6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="E6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="F6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="G6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="H6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="I6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="J6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="K6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="L6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="M6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="N6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="O6" s="73" t="n">
-        <v>0</v>
+        <v>0.4546</v>
       </c>
       <c r="P6" s="73" t="n">
-        <v>0</v>
+        <v>0.45462</v>
       </c>
       <c r="Q6" s="73" t="n">
-        <v>0</v>
+        <v>0.4547</v>
       </c>
       <c r="R6" s="73" t="n">
-        <v>0</v>
+        <v>0.45485</v>
       </c>
       <c r="S6" s="73" t="n">
-        <v>0</v>
+        <v>0.45514</v>
       </c>
       <c r="T6" s="73" t="n">
-        <v>0</v>
+        <v>0.45571</v>
       </c>
       <c r="U6" s="73" t="n">
-        <v>0</v>
+        <v>0.45675</v>
       </c>
       <c r="V6" s="73" t="n">
-        <v>0</v>
+        <v>0.45868</v>
       </c>
       <c r="W6" s="73" t="n">
-        <v>0</v>
+        <v>0.46224</v>
       </c>
       <c r="X6" s="73" t="n">
-        <v>0</v>
+        <v>0.46873</v>
       </c>
       <c r="Y6" s="73" t="n">
-        <v>0</v>
+        <v>0.47521</v>
       </c>
       <c r="Z6" s="73" t="n">
-        <v>0</v>
+        <v>0.48174</v>
       </c>
       <c r="AA6" s="73" t="n">
-        <v>0</v>
+        <v>0.48834</v>
       </c>
       <c r="AB6" s="73" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="AC6" s="73" t="n">
-        <v>0</v>
+        <v>0.5017</v>
       </c>
       <c r="AD6" s="73" t="n">
-        <v>0</v>
+        <v>0.50843</v>
       </c>
       <c r="AE6" s="73" t="n">
-        <v>0</v>
+        <v>0.5152099999999999</v>
       </c>
       <c r="AF6" s="73" t="n">
-        <v>0</v>
+        <v>0.52196</v>
       </c>
       <c r="AG6" s="73" t="n">
-        <v>0</v>
+        <v>0.52877</v>
       </c>
     </row>
     <row r="7">
@@ -37347,100 +37347,100 @@
         </is>
       </c>
       <c r="B7" s="73" t="n">
-        <v>73.22468000000001</v>
+        <v>44.25214</v>
       </c>
       <c r="C7" s="73" t="n">
-        <v>83.75742</v>
+        <v>50.61742</v>
       </c>
       <c r="D7" s="73" t="n">
-        <v>94.10951</v>
+        <v>56.87355</v>
       </c>
       <c r="E7" s="73" t="n">
-        <v>104.10608</v>
+        <v>62.91481</v>
       </c>
       <c r="F7" s="73" t="n">
-        <v>114.11787</v>
+        <v>68.96527</v>
       </c>
       <c r="G7" s="73" t="n">
-        <v>124.16805</v>
+        <v>75.03892999999999</v>
       </c>
       <c r="H7" s="73" t="n">
-        <v>134.2917</v>
+        <v>81.15698999999999</v>
       </c>
       <c r="I7" s="73" t="n">
-        <v>144.53154</v>
+        <v>87.34527</v>
       </c>
       <c r="J7" s="73" t="n">
-        <v>154.8798</v>
+        <v>93.59908</v>
       </c>
       <c r="K7" s="73" t="n">
-        <v>165.35153</v>
+        <v>99.92749999999999</v>
       </c>
       <c r="L7" s="73" t="n">
-        <v>175.96948</v>
+        <v>106.34428</v>
       </c>
       <c r="M7" s="73" t="n">
-        <v>186.79087</v>
+        <v>112.88401</v>
       </c>
       <c r="N7" s="73" t="n">
-        <v>197.76974</v>
+        <v>119.51891</v>
       </c>
       <c r="O7" s="73" t="n">
-        <v>208.85502</v>
+        <v>126.21812</v>
       </c>
       <c r="P7" s="73" t="n">
-        <v>220.06375</v>
+        <v>132.99193</v>
       </c>
       <c r="Q7" s="73" t="n">
-        <v>231.41332</v>
+        <v>139.85086</v>
       </c>
       <c r="R7" s="73" t="n">
-        <v>242.871</v>
+        <v>146.77512</v>
       </c>
       <c r="S7" s="73" t="n">
-        <v>254.41325</v>
+        <v>153.75049</v>
       </c>
       <c r="T7" s="73" t="n">
-        <v>266.09562</v>
+        <v>160.81054</v>
       </c>
       <c r="U7" s="73" t="n">
-        <v>277.91932</v>
+        <v>167.956</v>
       </c>
       <c r="V7" s="73" t="n">
-        <v>289.86223</v>
+        <v>175.1735</v>
       </c>
       <c r="W7" s="73" t="n">
-        <v>301.97276</v>
+        <v>182.4923</v>
       </c>
       <c r="X7" s="73" t="n">
-        <v>314.18253</v>
+        <v>189.87108</v>
       </c>
       <c r="Y7" s="73" t="n">
-        <v>326.52345</v>
+        <v>197.32911</v>
       </c>
       <c r="Z7" s="73" t="n">
-        <v>338.98822</v>
+        <v>204.86199</v>
       </c>
       <c r="AA7" s="73" t="n">
-        <v>351.57652</v>
+        <v>212.46952</v>
       </c>
       <c r="AB7" s="73" t="n">
-        <v>364.34055</v>
+        <v>220.18326</v>
       </c>
       <c r="AC7" s="73" t="n">
-        <v>377.28763</v>
+        <v>228.00761</v>
       </c>
       <c r="AD7" s="73" t="n">
-        <v>390.42588</v>
+        <v>235.9475</v>
       </c>
       <c r="AE7" s="73" t="n">
-        <v>403.72933</v>
+        <v>243.98722</v>
       </c>
       <c r="AF7" s="73" t="n">
-        <v>417.22755</v>
+        <v>252.14465</v>
       </c>
       <c r="AG7" s="73" t="n">
-        <v>430.8927</v>
+        <v>260.40296</v>
       </c>
     </row>
     <row r="8">
@@ -38752,58 +38752,58 @@
         <v>0</v>
       </c>
       <c r="P3" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="73" t="n">
         <v>1e-05</v>
       </c>
-      <c r="Q3" s="73" t="n">
+      <c r="S3" s="73" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="T3" s="73" t="n">
         <v>3e-05</v>
       </c>
-      <c r="R3" s="73" t="n">
-        <v>9.000000000000001e-05</v>
-      </c>
-      <c r="S3" s="73" t="n">
-        <v>0.00018</v>
-      </c>
-      <c r="T3" s="73" t="n">
-        <v>0.00037</v>
-      </c>
       <c r="U3" s="73" t="n">
-        <v>0.00072</v>
+        <v>5e-05</v>
       </c>
       <c r="V3" s="73" t="n">
-        <v>0.00137</v>
+        <v>0.0001</v>
       </c>
       <c r="W3" s="73" t="n">
-        <v>0.00256</v>
+        <v>0.00019</v>
       </c>
       <c r="X3" s="73" t="n">
-        <v>0.00472</v>
+        <v>0.00035</v>
       </c>
       <c r="Y3" s="73" t="n">
-        <v>0.00689</v>
+        <v>0.00051</v>
       </c>
       <c r="Z3" s="73" t="n">
-        <v>0.00908</v>
+        <v>0.00067</v>
       </c>
       <c r="AA3" s="73" t="n">
-        <v>0.01129</v>
+        <v>0.00083</v>
       </c>
       <c r="AB3" s="73" t="n">
-        <v>0.01352</v>
+        <v>0.001</v>
       </c>
       <c r="AC3" s="73" t="n">
-        <v>0.01577</v>
+        <v>0.00116</v>
       </c>
       <c r="AD3" s="73" t="n">
-        <v>0.01803</v>
+        <v>0.00133</v>
       </c>
       <c r="AE3" s="73" t="n">
-        <v>0.02031</v>
+        <v>0.0015</v>
       </c>
       <c r="AF3" s="73" t="n">
-        <v>0.02258</v>
+        <v>0.00167</v>
       </c>
       <c r="AG3" s="73" t="n">
-        <v>0.02486</v>
+        <v>0.00183</v>
       </c>
     </row>
     <row r="4">
@@ -39019,100 +39019,100 @@
         </is>
       </c>
       <c r="B6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="C6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="D6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="E6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="F6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="G6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="H6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="I6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="J6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="K6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="L6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="M6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="N6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="O6" s="73" t="n">
-        <v>0</v>
+        <v>0.16559</v>
       </c>
       <c r="P6" s="73" t="n">
-        <v>0</v>
+        <v>0.1656</v>
       </c>
       <c r="Q6" s="73" t="n">
-        <v>0</v>
+        <v>0.16563</v>
       </c>
       <c r="R6" s="73" t="n">
-        <v>0</v>
+        <v>0.16568</v>
       </c>
       <c r="S6" s="73" t="n">
-        <v>0</v>
+        <v>0.16579</v>
       </c>
       <c r="T6" s="73" t="n">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="U6" s="73" t="n">
-        <v>0</v>
+        <v>0.16637</v>
       </c>
       <c r="V6" s="73" t="n">
-        <v>0</v>
+        <v>0.16708</v>
       </c>
       <c r="W6" s="73" t="n">
-        <v>0</v>
+        <v>0.16838</v>
       </c>
       <c r="X6" s="73" t="n">
-        <v>0</v>
+        <v>0.17074</v>
       </c>
       <c r="Y6" s="73" t="n">
-        <v>0</v>
+        <v>0.1731</v>
       </c>
       <c r="Z6" s="73" t="n">
-        <v>0</v>
+        <v>0.17548</v>
       </c>
       <c r="AA6" s="73" t="n">
-        <v>0</v>
+        <v>0.17788</v>
       </c>
       <c r="AB6" s="73" t="n">
-        <v>0</v>
+        <v>0.18031</v>
       </c>
       <c r="AC6" s="73" t="n">
-        <v>0</v>
+        <v>0.18275</v>
       </c>
       <c r="AD6" s="73" t="n">
-        <v>0</v>
+        <v>0.1852</v>
       </c>
       <c r="AE6" s="73" t="n">
-        <v>0</v>
+        <v>0.18767</v>
       </c>
       <c r="AF6" s="73" t="n">
-        <v>0</v>
+        <v>0.19013</v>
       </c>
       <c r="AG6" s="73" t="n">
-        <v>0</v>
+        <v>0.19261</v>
       </c>
     </row>
     <row r="7">
@@ -39122,100 +39122,100 @@
         </is>
       </c>
       <c r="B7" s="73" t="n">
-        <v>23.76165</v>
+        <v>16.11913</v>
       </c>
       <c r="C7" s="73" t="n">
-        <v>27.17956</v>
+        <v>18.43773</v>
       </c>
       <c r="D7" s="73" t="n">
-        <v>30.53885</v>
+        <v>20.71656</v>
       </c>
       <c r="E7" s="73" t="n">
-        <v>33.78277</v>
+        <v>22.91713</v>
       </c>
       <c r="F7" s="73" t="n">
-        <v>37.03163</v>
+        <v>25.12105</v>
       </c>
       <c r="G7" s="73" t="n">
-        <v>40.29294</v>
+        <v>27.33342</v>
       </c>
       <c r="H7" s="73" t="n">
-        <v>43.5781</v>
+        <v>29.56196</v>
       </c>
       <c r="I7" s="73" t="n">
-        <v>46.90096</v>
+        <v>31.81608</v>
       </c>
       <c r="J7" s="73" t="n">
-        <v>50.25901</v>
+        <v>34.09407</v>
       </c>
       <c r="K7" s="73" t="n">
-        <v>53.65712</v>
+        <v>36.39924</v>
       </c>
       <c r="L7" s="73" t="n">
-        <v>57.10268</v>
+        <v>38.73659</v>
       </c>
       <c r="M7" s="73" t="n">
-        <v>60.61426</v>
+        <v>41.11873</v>
       </c>
       <c r="N7" s="73" t="n">
-        <v>64.17694</v>
+        <v>43.53554</v>
       </c>
       <c r="O7" s="73" t="n">
-        <v>67.77415000000001</v>
+        <v>45.97577</v>
       </c>
       <c r="P7" s="73" t="n">
-        <v>71.41142000000001</v>
+        <v>48.44317</v>
       </c>
       <c r="Q7" s="73" t="n">
-        <v>75.09439</v>
+        <v>50.94158</v>
       </c>
       <c r="R7" s="73" t="n">
-        <v>78.81244</v>
+        <v>53.46379</v>
       </c>
       <c r="S7" s="73" t="n">
-        <v>82.55794</v>
+        <v>56.00461</v>
       </c>
       <c r="T7" s="73" t="n">
-        <v>86.34891</v>
+        <v>58.57628</v>
       </c>
       <c r="U7" s="73" t="n">
-        <v>90.18574</v>
+        <v>61.17906</v>
       </c>
       <c r="V7" s="73" t="n">
-        <v>94.06125</v>
+        <v>63.80808</v>
       </c>
       <c r="W7" s="73" t="n">
-        <v>97.99115999999999</v>
+        <v>66.474</v>
       </c>
       <c r="X7" s="73" t="n">
-        <v>101.95327</v>
+        <v>69.16177</v>
       </c>
       <c r="Y7" s="73" t="n">
-        <v>105.95794</v>
+        <v>71.87841</v>
       </c>
       <c r="Z7" s="73" t="n">
-        <v>110.0028</v>
+        <v>74.62231</v>
       </c>
       <c r="AA7" s="73" t="n">
-        <v>114.08774</v>
+        <v>77.3934</v>
       </c>
       <c r="AB7" s="73" t="n">
-        <v>118.22972</v>
+        <v>80.20318</v>
       </c>
       <c r="AC7" s="73" t="n">
-        <v>122.43109</v>
+        <v>83.05325000000001</v>
       </c>
       <c r="AD7" s="73" t="n">
-        <v>126.69449</v>
+        <v>85.94541</v>
       </c>
       <c r="AE7" s="73" t="n">
-        <v>131.01151</v>
+        <v>88.87393</v>
       </c>
       <c r="AF7" s="73" t="n">
-        <v>135.39172</v>
+        <v>91.84532</v>
       </c>
       <c r="AG7" s="73" t="n">
-        <v>139.82611</v>
+        <v>94.85347</v>
       </c>
     </row>
     <row r="8">
@@ -40485,100 +40485,100 @@
         </is>
       </c>
       <c r="B3" s="73" t="n">
-        <v>19.47557</v>
+        <v>111.20246</v>
       </c>
       <c r="C3" s="73" t="n">
-        <v>19.98406</v>
+        <v>114.10586</v>
       </c>
       <c r="D3" s="73" t="n">
-        <v>20.40952</v>
+        <v>116.53518</v>
       </c>
       <c r="E3" s="73" t="n">
-        <v>20.77652</v>
+        <v>118.6307</v>
       </c>
       <c r="F3" s="73" t="n">
-        <v>21.08128</v>
+        <v>120.37081</v>
       </c>
       <c r="G3" s="73" t="n">
-        <v>21.37135</v>
+        <v>122.02706</v>
       </c>
       <c r="H3" s="73" t="n">
-        <v>21.66274</v>
+        <v>123.6909</v>
       </c>
       <c r="I3" s="73" t="n">
-        <v>21.95916</v>
+        <v>125.38341</v>
       </c>
       <c r="J3" s="73" t="n">
-        <v>22.20213</v>
+        <v>126.77069</v>
       </c>
       <c r="K3" s="73" t="n">
-        <v>22.4081</v>
+        <v>127.94678</v>
       </c>
       <c r="L3" s="73" t="n">
-        <v>22.61533</v>
+        <v>129.13002</v>
       </c>
       <c r="M3" s="73" t="n">
-        <v>22.84025</v>
+        <v>130.41425</v>
       </c>
       <c r="N3" s="73" t="n">
-        <v>23.06022</v>
+        <v>131.67024</v>
       </c>
       <c r="O3" s="73" t="n">
-        <v>23.26772</v>
+        <v>132.85505</v>
       </c>
       <c r="P3" s="73" t="n">
-        <v>23.51753</v>
+        <v>134.28145</v>
       </c>
       <c r="Q3" s="73" t="n">
-        <v>23.7291</v>
+        <v>135.48946</v>
       </c>
       <c r="R3" s="73" t="n">
-        <v>23.9246</v>
+        <v>136.60574</v>
       </c>
       <c r="S3" s="73" t="n">
-        <v>24.12635</v>
+        <v>137.75768</v>
       </c>
       <c r="T3" s="73" t="n">
-        <v>24.31411</v>
+        <v>138.82977</v>
       </c>
       <c r="U3" s="73" t="n">
-        <v>24.55383</v>
+        <v>140.19856</v>
       </c>
       <c r="V3" s="73" t="n">
-        <v>24.75144</v>
+        <v>141.32687</v>
       </c>
       <c r="W3" s="73" t="n">
-        <v>24.93877</v>
+        <v>142.39647</v>
       </c>
       <c r="X3" s="73" t="n">
-        <v>25.1603</v>
+        <v>143.6614</v>
       </c>
       <c r="Y3" s="73" t="n">
-        <v>25.41497</v>
+        <v>145.11554</v>
       </c>
       <c r="Z3" s="73" t="n">
-        <v>25.60867</v>
+        <v>146.22155</v>
       </c>
       <c r="AA3" s="73" t="n">
-        <v>25.84699</v>
+        <v>147.58231</v>
       </c>
       <c r="AB3" s="73" t="n">
-        <v>26.04417</v>
+        <v>148.70818</v>
       </c>
       <c r="AC3" s="73" t="n">
-        <v>26.24135</v>
+        <v>149.83404</v>
       </c>
       <c r="AD3" s="73" t="n">
-        <v>26.45676</v>
+        <v>151.06397</v>
       </c>
       <c r="AE3" s="73" t="n">
-        <v>26.65707</v>
+        <v>152.20774</v>
       </c>
       <c r="AF3" s="73" t="n">
-        <v>26.85685</v>
+        <v>153.34845</v>
       </c>
       <c r="AG3" s="73" t="n">
-        <v>27.05716</v>
+        <v>154.49217</v>
       </c>
     </row>
     <row r="4">
@@ -40794,100 +40794,100 @@
         </is>
       </c>
       <c r="B6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="C6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="D6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="E6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="F6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="G6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="H6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="I6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="J6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="K6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="L6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="M6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="N6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="O6" s="73" t="n">
-        <v>0</v>
+        <v>2.54581</v>
       </c>
       <c r="P6" s="73" t="n">
-        <v>0</v>
+        <v>2.54595</v>
       </c>
       <c r="Q6" s="73" t="n">
-        <v>0</v>
+        <v>2.54637</v>
       </c>
       <c r="R6" s="73" t="n">
-        <v>0</v>
+        <v>2.5472</v>
       </c>
       <c r="S6" s="73" t="n">
-        <v>0</v>
+        <v>2.54886</v>
       </c>
       <c r="T6" s="73" t="n">
-        <v>0</v>
+        <v>2.55205</v>
       </c>
       <c r="U6" s="73" t="n">
-        <v>0</v>
+        <v>2.55786</v>
       </c>
       <c r="V6" s="73" t="n">
-        <v>0</v>
+        <v>2.56867</v>
       </c>
       <c r="W6" s="73" t="n">
-        <v>0</v>
+        <v>2.58862</v>
       </c>
       <c r="X6" s="73" t="n">
-        <v>0</v>
+        <v>2.62492</v>
       </c>
       <c r="Y6" s="73" t="n">
-        <v>0</v>
+        <v>2.66121</v>
       </c>
       <c r="Z6" s="73" t="n">
-        <v>0</v>
+        <v>2.69779</v>
       </c>
       <c r="AA6" s="73" t="n">
-        <v>0</v>
+        <v>2.73478</v>
       </c>
       <c r="AB6" s="73" t="n">
-        <v>0</v>
+        <v>2.77205</v>
       </c>
       <c r="AC6" s="73" t="n">
-        <v>0</v>
+        <v>2.80959</v>
       </c>
       <c r="AD6" s="73" t="n">
-        <v>0</v>
+        <v>2.84727</v>
       </c>
       <c r="AE6" s="73" t="n">
-        <v>0</v>
+        <v>2.88523</v>
       </c>
       <c r="AF6" s="73" t="n">
-        <v>0</v>
+        <v>2.92306</v>
       </c>
       <c r="AG6" s="73" t="n">
-        <v>0</v>
+        <v>2.96115</v>
       </c>
     </row>
     <row r="7">
@@ -40897,100 +40897,100 @@
         </is>
       </c>
       <c r="B7" s="73" t="n">
-        <v>73.44808</v>
+        <v>57.53796</v>
       </c>
       <c r="C7" s="73" t="n">
-        <v>84.01294</v>
+        <v>65.81429</v>
       </c>
       <c r="D7" s="73" t="n">
-        <v>94.39663</v>
+        <v>73.94869</v>
       </c>
       <c r="E7" s="73" t="n">
-        <v>104.42369</v>
+        <v>81.80372</v>
       </c>
       <c r="F7" s="73" t="n">
-        <v>114.46602</v>
+        <v>89.67071</v>
       </c>
       <c r="G7" s="73" t="n">
-        <v>124.54687</v>
+        <v>97.56787</v>
       </c>
       <c r="H7" s="73" t="n">
-        <v>134.7014</v>
+        <v>105.52276</v>
       </c>
       <c r="I7" s="73" t="n">
-        <v>144.97248</v>
+        <v>113.56894</v>
       </c>
       <c r="J7" s="73" t="n">
-        <v>155.35232</v>
+        <v>121.70033</v>
       </c>
       <c r="K7" s="73" t="n">
-        <v>165.85599</v>
+        <v>129.92873</v>
       </c>
       <c r="L7" s="73" t="n">
-        <v>176.50633</v>
+        <v>138.27202</v>
       </c>
       <c r="M7" s="73" t="n">
-        <v>187.36073</v>
+        <v>146.77517</v>
       </c>
       <c r="N7" s="73" t="n">
-        <v>198.3731</v>
+        <v>155.40207</v>
       </c>
       <c r="O7" s="73" t="n">
-        <v>209.4922</v>
+        <v>164.11258</v>
       </c>
       <c r="P7" s="73" t="n">
-        <v>220.73513</v>
+        <v>172.9201</v>
       </c>
       <c r="Q7" s="73" t="n">
-        <v>232.11932</v>
+        <v>181.83828</v>
       </c>
       <c r="R7" s="73" t="n">
-        <v>243.61196</v>
+        <v>190.84141</v>
       </c>
       <c r="S7" s="73" t="n">
-        <v>255.18941</v>
+        <v>199.911</v>
       </c>
       <c r="T7" s="73" t="n">
-        <v>266.90743</v>
+        <v>209.09069</v>
       </c>
       <c r="U7" s="73" t="n">
-        <v>278.7672</v>
+        <v>218.38143</v>
       </c>
       <c r="V7" s="73" t="n">
-        <v>290.74655</v>
+        <v>227.76584</v>
       </c>
       <c r="W7" s="73" t="n">
-        <v>302.89402</v>
+        <v>237.28196</v>
       </c>
       <c r="X7" s="73" t="n">
-        <v>315.14105</v>
+        <v>246.87607</v>
       </c>
       <c r="Y7" s="73" t="n">
-        <v>327.51961</v>
+        <v>256.57323</v>
       </c>
       <c r="Z7" s="73" t="n">
-        <v>340.02241</v>
+        <v>266.36771</v>
       </c>
       <c r="AA7" s="73" t="n">
-        <v>352.64911</v>
+        <v>276.25925</v>
       </c>
       <c r="AB7" s="73" t="n">
-        <v>365.45209</v>
+        <v>286.28888</v>
       </c>
       <c r="AC7" s="73" t="n">
-        <v>378.43867</v>
+        <v>296.46234</v>
       </c>
       <c r="AD7" s="73" t="n">
-        <v>391.617</v>
+        <v>306.78602</v>
       </c>
       <c r="AE7" s="73" t="n">
-        <v>404.96104</v>
+        <v>317.23951</v>
       </c>
       <c r="AF7" s="73" t="n">
-        <v>418.50043</v>
+        <v>327.84604</v>
       </c>
       <c r="AG7" s="73" t="n">
-        <v>432.20728</v>
+        <v>338.58375</v>
       </c>
     </row>
     <row r="8">
@@ -41309,100 +41309,100 @@
         </is>
       </c>
       <c r="B11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="C11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="D11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="E11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="F11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="G11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="H11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="I11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="J11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="K11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="L11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="M11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="N11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="O11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="P11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="Q11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="R11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="S11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="T11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="U11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="V11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="W11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="X11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="Y11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="Z11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="AA11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="AB11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="AC11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="AD11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="AE11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="AF11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
       <c r="AG11" s="73" t="n">
-        <v>53.01798</v>
+        <v>2.54273</v>
       </c>
     </row>
     <row r="12">
@@ -42326,34 +42326,34 @@
         <v>0</v>
       </c>
       <c r="X3" s="73" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="73" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="73" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="73" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="73" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="73" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="73" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="73" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="73" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="73" t="n">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -42569,100 +42569,100 @@
         </is>
       </c>
       <c r="B6" s="73" t="n">
-        <v>0</v>
+        <v>0.01373</v>
       </c>
       <c r="C6" s="73" t="n">
-        <v>0</v>
+        <v>0.01373</v>
       </c>
       <c r="D6" s="73" t="n">
-        <v>0</v>
+        <v>0.01375</v>
       </c>
       <c r="E6" s="73" t="n">
-        <v>0</v>
+        <v>0.01375</v>
       </c>
       <c r="F6" s="73" t="n">
-        <v>0</v>
+        <v>0.01375</v>
       </c>
       <c r="G6" s="73" t="n">
-        <v>0</v>
+        <v>0.01377</v>
       </c>
       <c r="H6" s="73" t="n">
-        <v>0</v>
+        <v>0.0138</v>
       </c>
       <c r="I6" s="73" t="n">
-        <v>0</v>
+        <v>0.01386</v>
       </c>
       <c r="J6" s="73" t="n">
-        <v>0</v>
+        <v>0.01392</v>
       </c>
       <c r="K6" s="73" t="n">
-        <v>0</v>
+        <v>0.01392</v>
       </c>
       <c r="L6" s="73" t="n">
-        <v>0</v>
+        <v>0.01392</v>
       </c>
       <c r="M6" s="73" t="n">
-        <v>0</v>
+        <v>0.01395</v>
       </c>
       <c r="N6" s="73" t="n">
-        <v>0</v>
+        <v>0.01395</v>
       </c>
       <c r="O6" s="73" t="n">
-        <v>0</v>
+        <v>0.01395</v>
       </c>
       <c r="P6" s="73" t="n">
-        <v>0</v>
+        <v>0.01398</v>
       </c>
       <c r="Q6" s="73" t="n">
-        <v>0</v>
+        <v>0.01399</v>
       </c>
       <c r="R6" s="73" t="n">
-        <v>0</v>
+        <v>0.01399</v>
       </c>
       <c r="S6" s="73" t="n">
-        <v>0</v>
+        <v>0.01399</v>
       </c>
       <c r="T6" s="73" t="n">
-        <v>0</v>
+        <v>0.01399</v>
       </c>
       <c r="U6" s="73" t="n">
-        <v>0</v>
+        <v>0.01403</v>
       </c>
       <c r="V6" s="73" t="n">
-        <v>0</v>
+        <v>0.01406</v>
       </c>
       <c r="W6" s="73" t="n">
-        <v>0</v>
+        <v>0.01406</v>
       </c>
       <c r="X6" s="73" t="n">
-        <v>0</v>
+        <v>0.0141</v>
       </c>
       <c r="Y6" s="73" t="n">
-        <v>0</v>
+        <v>0.01411</v>
       </c>
       <c r="Z6" s="73" t="n">
-        <v>0</v>
+        <v>0.01411</v>
       </c>
       <c r="AA6" s="73" t="n">
-        <v>0</v>
+        <v>0.01411</v>
       </c>
       <c r="AB6" s="73" t="n">
-        <v>0</v>
+        <v>0.01411</v>
       </c>
       <c r="AC6" s="73" t="n">
-        <v>0</v>
+        <v>0.01412</v>
       </c>
       <c r="AD6" s="73" t="n">
-        <v>0</v>
+        <v>0.01412</v>
       </c>
       <c r="AE6" s="73" t="n">
-        <v>0</v>
+        <v>0.01412</v>
       </c>
       <c r="AF6" s="73" t="n">
-        <v>0</v>
+        <v>0.01412</v>
       </c>
       <c r="AG6" s="73" t="n">
-        <v>0</v>
+        <v>0.01412</v>
       </c>
     </row>
     <row r="7">
@@ -42672,100 +42672,100 @@
         </is>
       </c>
       <c r="B7" s="73" t="n">
-        <v>0.05009</v>
+        <v>0.03027</v>
       </c>
       <c r="C7" s="73" t="n">
-        <v>0.05961</v>
+        <v>0.03602</v>
       </c>
       <c r="D7" s="73" t="n">
-        <v>0.06915</v>
+        <v>0.04179</v>
       </c>
       <c r="E7" s="73" t="n">
-        <v>0.07606</v>
+        <v>0.04597</v>
       </c>
       <c r="F7" s="73" t="n">
-        <v>0.07986</v>
+        <v>0.04826</v>
       </c>
       <c r="G7" s="73" t="n">
-        <v>0.08205</v>
+        <v>0.04959</v>
       </c>
       <c r="H7" s="73" t="n">
-        <v>0.08643000000000001</v>
+        <v>0.05223</v>
       </c>
       <c r="I7" s="73" t="n">
-        <v>0.09082999999999999</v>
+        <v>0.05489</v>
       </c>
       <c r="J7" s="73" t="n">
-        <v>0.09501999999999999</v>
+        <v>0.05742</v>
       </c>
       <c r="K7" s="73" t="n">
-        <v>0.09812</v>
+        <v>0.0593</v>
       </c>
       <c r="L7" s="73" t="n">
-        <v>0.10136</v>
+        <v>0.06125</v>
       </c>
       <c r="M7" s="73" t="n">
-        <v>0.10546</v>
+        <v>0.06372999999999999</v>
       </c>
       <c r="N7" s="73" t="n">
-        <v>0.10712</v>
+        <v>0.06474000000000001</v>
       </c>
       <c r="O7" s="73" t="n">
-        <v>0.10845</v>
+        <v>0.06554</v>
       </c>
       <c r="P7" s="73" t="n">
-        <v>0.11077</v>
+        <v>0.06694</v>
       </c>
       <c r="Q7" s="73" t="n">
-        <v>0.11315</v>
+        <v>0.06838</v>
       </c>
       <c r="R7" s="73" t="n">
-        <v>0.11425</v>
+        <v>0.06905</v>
       </c>
       <c r="S7" s="73" t="n">
-        <v>0.117</v>
+        <v>0.07071</v>
       </c>
       <c r="T7" s="73" t="n">
-        <v>0.11833</v>
+        <v>0.07151</v>
       </c>
       <c r="U7" s="73" t="n">
-        <v>0.12098</v>
+        <v>0.07310999999999999</v>
       </c>
       <c r="V7" s="73" t="n">
-        <v>0.12256</v>
+        <v>0.07406</v>
       </c>
       <c r="W7" s="73" t="n">
-        <v>0.12379</v>
+        <v>0.07481</v>
       </c>
       <c r="X7" s="73" t="n">
-        <v>0.12548</v>
+        <v>0.07582999999999999</v>
       </c>
       <c r="Y7" s="73" t="n">
-        <v>0.12718</v>
+        <v>0.07686</v>
       </c>
       <c r="Z7" s="73" t="n">
-        <v>0.12872</v>
+        <v>0.07779</v>
       </c>
       <c r="AA7" s="73" t="n">
-        <v>0.13093</v>
+        <v>0.07913000000000001</v>
       </c>
       <c r="AB7" s="73" t="n">
-        <v>0.13256</v>
+        <v>0.08011</v>
       </c>
       <c r="AC7" s="73" t="n">
-        <v>0.13511</v>
+        <v>0.08165</v>
       </c>
       <c r="AD7" s="73" t="n">
-        <v>0.13729</v>
+        <v>0.08297</v>
       </c>
       <c r="AE7" s="73" t="n">
-        <v>0.13914</v>
+        <v>0.08409</v>
       </c>
       <c r="AF7" s="73" t="n">
-        <v>0.1404</v>
+        <v>0.08484999999999999</v>
       </c>
       <c r="AG7" s="73" t="n">
-        <v>0.14236</v>
+        <v>0.08603</v>
       </c>
     </row>
     <row r="8">
